--- a/doc/中信证券一级行业指数.xlsx
+++ b/doc/中信证券一级行业指数.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1245" windowWidth="14985" windowHeight="3150" activeTab="9"/>
+    <workbookView xWindow="330" yWindow="1245" windowWidth="14985" windowHeight="3150" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="file" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,17 @@
     <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet6!$A$1:$AK$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="916">
   <si>
     <t>代码</t>
   </si>
@@ -3130,147 +3129,6 @@
   </si>
   <si>
     <t>EEG预期净利润同比（短）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5日/120日均线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 波动率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特质波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高-最低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBETA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期EPS标准差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期ROE变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期营收增速变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期净利润同比（长）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期净利润同比（短）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产周转率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款周转率同比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总费用/营收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场杠杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOK杠杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产负债率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产负债率变动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accrual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小6日平均收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去一个月收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股集中度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RATINGUP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风
-险
-因
-子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha
-因
-子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4106,7 +3964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4424,129 +4282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -4619,7 +4354,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4970,7 +4704,7 @@
             <c:numRef>
               <c:f>Sheet5!$V$3:$V$106</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * !-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.99973770347179314</c:v>
@@ -5299,11 +5033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202015488"/>
-        <c:axId val="202017024"/>
+        <c:axId val="6038272"/>
+        <c:axId val="85278720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="202015488"/>
+        <c:axId val="6038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,32 +5047,31 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202017024"/>
+        <c:crossAx val="85278720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="202017024"/>
+        <c:axId val="85278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.00_ ;_ * !-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202015488"/>
+        <c:crossAx val="6038272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6116,708 +5849,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K6:K12"/>
     <mergeCell ref="G6:G17"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H17"/>
+    <mergeCell ref="J2:J12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K6:K12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="A3:U20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="108" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="108" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="7.75" style="108"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="109" t="s">
-        <v>922</v>
-      </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="138" t="s">
-        <v>948</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="110" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="U4" s="113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="116"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="117" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="M5" s="117" t="s">
-        <v>671</v>
-      </c>
-      <c r="N5" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" s="142" t="s">
-        <v>655</v>
-      </c>
-      <c r="P5" s="118" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q5" s="134" t="s">
-        <v>656</v>
-      </c>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="114"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="116"/>
-      <c r="B6" s="119" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>921</v>
-      </c>
-      <c r="E6" s="121" t="s">
-        <v>918</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>916</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>923</v>
-      </c>
-      <c r="I6" s="120" t="s">
-        <v>925</v>
-      </c>
-      <c r="J6" s="121" t="s">
-        <v>931</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>933</v>
-      </c>
-      <c r="L6" s="120" t="s">
-        <v>936</v>
-      </c>
-      <c r="M6" s="120" t="s">
-        <v>940</v>
-      </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="119" t="s">
-        <v>941</v>
-      </c>
-      <c r="P6" s="120" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="120" t="s">
-        <v>665</v>
-      </c>
-      <c r="S6" s="120" t="s">
-        <v>686</v>
-      </c>
-      <c r="T6" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="U6" s="132"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="62" t="s">
-        <v>919</v>
-      </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="107" t="s">
-        <v>690</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>684</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>926</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>932</v>
-      </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="62" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="130"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="116"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="124" t="s">
-        <v>917</v>
-      </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="62" t="s">
-        <v>924</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>927</v>
-      </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107" t="s">
-        <v>628</v>
-      </c>
-      <c r="L8" s="107" t="s">
-        <v>937</v>
-      </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="123" t="s">
-        <v>942</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="124" t="s">
-        <v>185</v>
-      </c>
-      <c r="U8" s="130"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="116"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>947</v>
-      </c>
-      <c r="I9" s="107" t="s">
-        <v>928</v>
-      </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107" t="s">
-        <v>648</v>
-      </c>
-      <c r="L9" s="107" t="s">
-        <v>938</v>
-      </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="130"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="116"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="107" t="s">
-        <v>661</v>
-      </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107" t="s">
-        <v>642</v>
-      </c>
-      <c r="K10" s="107" t="s">
-        <v>658</v>
-      </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="130"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="116"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="62" t="s">
-        <v>643</v>
-      </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="130"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="116"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="62" t="s">
-        <v>644</v>
-      </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="130"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="116"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="130"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="114"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="125" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125" t="s">
-        <v>640</v>
-      </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="131"/>
-    </row>
-    <row r="15" spans="1:21" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="138" t="s">
-        <v>949</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120" t="s">
-        <v>662</v>
-      </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121" t="s">
-        <v>919</v>
-      </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="120" t="s">
-        <v>663</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>667</v>
-      </c>
-      <c r="I15" s="137" t="s">
-        <v>635</v>
-      </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="120" t="s">
-        <v>641</v>
-      </c>
-      <c r="L15" s="120" t="s">
-        <v>939</v>
-      </c>
-      <c r="M15" s="120" t="s">
-        <v>935</v>
-      </c>
-      <c r="N15" s="143" t="s">
-        <v>659</v>
-      </c>
-      <c r="O15" s="119" t="s">
-        <v>943</v>
-      </c>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="145" t="s">
-        <v>702</v>
-      </c>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="122" t="s">
-        <v>945</v>
-      </c>
-      <c r="U15" s="133" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="116"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="62" t="s">
-        <v>920</v>
-      </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="107" t="s">
-        <v>669</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>687</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>633</v>
-      </c>
-      <c r="J16" s="62" t="s">
-        <v>931</v>
-      </c>
-      <c r="K16" s="107" t="s">
-        <v>934</v>
-      </c>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="146" t="s">
-        <v>944</v>
-      </c>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="147" t="s">
-        <v>704</v>
-      </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="130" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="116"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="107" t="s">
-        <v>670</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>688</v>
-      </c>
-      <c r="I17" s="107" t="s">
-        <v>929</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>932</v>
-      </c>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="127" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="130" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="116"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107" t="s">
-        <v>930</v>
-      </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="107" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="116"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107" t="s">
-        <v>928</v>
-      </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="62" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q19" s="124" t="s">
-        <v>699</v>
-      </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="130"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="114"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="125" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q20" s="128" t="s">
-        <v>700</v>
-      </c>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="131"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="R4:R5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7593,6 +6639,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="O5:O6"/>
@@ -7604,12 +6656,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28608,8 +27654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33315,7 +32361,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V37"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
